--- a/data/trans_camb/P19-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,2</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>3,12; 17,78</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 25,02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 19,72</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 24,31</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 17,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,24; 21,79</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>53,53%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88,11%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53,08%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>74,37%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,16%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>11,29; 104,21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38,98; 151,72</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 104,83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35,12; 139,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,79; 92,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,57; 119,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,89; 1,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 5,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; -3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -2,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,06; -2,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 2,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; -1,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,75; 7,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,13; 20,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,27; -10,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,47; 9,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,49; -7,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,37; -8,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; 8,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,4; -5,34</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 7,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 13,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; 4,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 14,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 9,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 8,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 9,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 10,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 5,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,24; 42,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 71,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,42; 21,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 57,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 38,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 36,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 40,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 46,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,84; 21,91</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 11,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 21,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,28; -0,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 11,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 18,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 0,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 9,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 17,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,2%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 26,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 48,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,66; 88,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,28; -2,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 39,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,57; 60,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 1,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 34,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,49; 64,13</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,96; -5,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,43; -9,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,77; -13,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 12,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 5,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,88; -4,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 1,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,8; -3,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,89; -10,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,34; -19,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,98; -28,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,42; -46,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; 51,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,02; 22,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,46; -16,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,7; 5,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,56; -12,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,01; -38,06</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 19,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,38; 23,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 11,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 4,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 15,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 1,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 8,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 16,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 4,2</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,62%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,14; 113,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,11; 147,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 71,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,39; 13,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 50,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,42; 3,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,49; 34,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,82; 69,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 17,08</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; 0,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 5,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 11,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 1,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 4,56</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 3,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; -1,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 3,23</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 5,21</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,53; 2,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,77; 20,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 45,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,47; 4,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,82; 12,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,81; 8,99</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,8; -3,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,88; 9,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,24; 16,07</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 6,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 13,12</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 2,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 8,65</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 11,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 1,41</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 6,56</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 11,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 0,63</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,41%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,72%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 36,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,7; 70,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; 13,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 35,68</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 47,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,61; 5,94</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 29,85</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,74; 51,19</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,14; 3,02</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 2,03</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 6,3</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 1,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 5,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 1,51</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,98</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 5,25</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,16</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 8,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 26,74</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 15,58</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 4,04</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 17,83</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 4,93</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 3,5</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,82; 19,04</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 8,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>17,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>17,28</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 12,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 25,02</t>
+          <t>9,51; 25,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 24,31</t>
+          <t>9,42; 24,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 9,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 21,79</t>
+          <t>12,08; 22,27</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>74,37%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>81,55%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 75,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,98; 151,72</t>
+          <t>37,78; 154,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 57,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 139,06</t>
+          <t>35,4; 139,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 53,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,57; 119,7</t>
+          <t>51,04; 120,69</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-6,13</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 1,8</t>
+          <t>-10,93; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -2,57</t>
+          <t>-13,4; -2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -1,55</t>
+          <t>-9,96; -1,65</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>-14,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,92%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-19,24%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 6,86</t>
+          <t>-34,45; 7,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,49; -7,9</t>
+          <t>-35,65; -7,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,4; -5,34</t>
+          <t>-30,19; -5,6</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,15</t>
+          <t>-8,23; 4,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 8,88</t>
+          <t>-3,89; 9,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,05</t>
+          <t>-4,46; 5,06</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 21,81</t>
+          <t>-31,79; 22,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 36,33</t>
+          <t>-12,55; 37,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 21,91</t>
+          <t>-16,12; 21,42</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>10,5</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,98</t>
+          <t>-6,51; 7,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 21,28</t>
+          <t>4,14; 20,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -0,96</t>
+          <t>-13,69; -0,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 18,37</t>
+          <t>-10,19; 20,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,48</t>
+          <t>-8,24; 1,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 17,27</t>
+          <t>0,1; 18,74</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>-21,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>35,26%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 26,44</t>
+          <t>-22,29; 31,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,66; 88,19</t>
+          <t>12,7; 87,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -2,96</t>
+          <t>-37,46; -1,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 60,31</t>
+          <t>-29,3; 67,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 1,81</t>
+          <t>-25,72; 5,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,49; 64,13</t>
+          <t>1,46; 65,72</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,12</t>
+          <t>-21,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-15,83</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,77; -13,17</t>
+          <t>-28,82; -13,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -4,05</t>
+          <t>-17,77; -3,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -10,42</t>
+          <t>-20,87; -10,37</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-63,1%</t>
+          <t>-63,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-38,22%</t>
+          <t>-37,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-50,81%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,42; -46,4</t>
+          <t>-75,63; -46,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,46; -16,96</t>
+          <t>-52,76; -16,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,01; -38,06</t>
+          <t>-60,89; -38,01</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 11,29</t>
+          <t>-2,05; 11,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 1,35</t>
+          <t>-13,95; 1,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,2</t>
+          <t>-5,7; 4,21</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>-2,8%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 71,82</t>
+          <t>-9,98; 71,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 3,89</t>
+          <t>-35,68; 3,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 17,08</t>
+          <t>-19,12; 17,54</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 11,86</t>
+          <t>0,75; 12,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 3,26</t>
+          <t>-23,41; 3,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,21</t>
+          <t>-15,3; 4,82</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,07%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>-4,98%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,31; 45,55</t>
+          <t>2,32; 45,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 8,99</t>
+          <t>-61,36; 8,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 16,07</t>
+          <t>-44,26; 14,78</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 2,55</t>
+          <t>-16,48; 0,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,41</t>
+          <t>-6,79; 1,4</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,63</t>
+          <t>-13,25; -0,65</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-9,41%</t>
+          <t>-29,71%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-21,11%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 13,72</t>
+          <t>-69,65; 1,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 5,94</t>
+          <t>-23,67; 5,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 3,02</t>
+          <t>-54,16; -2,67</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,68</t>
+          <t>-5,48; 3,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,51</t>
+          <t>-7,14; 1,89</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,16</t>
+          <t>-4,38; 1,82</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-2,17%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 15,58</t>
+          <t>-22,33; 12,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 4,93</t>
+          <t>-23,39; 6,0</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,06</t>
+          <t>-15,5; 6,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 12,16</t>
+          <t>-1,69; 13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 17,78</t>
+          <t>2,61; 17,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 25,92</t>
+          <t>9,43; 26,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 10,87</t>
+          <t>-3,52; 11,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 19,72</t>
+          <t>4,54; 20,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 24,66</t>
+          <t>9,63; 24,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,97</t>
+          <t>-0,17; 10,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 17,04</t>
+          <t>6,31; 17,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 22,27</t>
+          <t>11,64; 22,71</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 75,95</t>
+          <t>-7,34; 82,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 104,21</t>
+          <t>10,66; 108,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,78; 154,21</t>
+          <t>39,66; 163,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 57,66</t>
+          <t>-13,01; 63,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 104,83</t>
+          <t>16,21; 106,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,4; 139,23</t>
+          <t>34,26; 129,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 53,51</t>
+          <t>-1,24; 55,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,79; 92,21</t>
+          <t>26,5; 93,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 120,69</t>
+          <t>47,23; 122,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 1,78</t>
+          <t>-10,28; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,3</t>
+          <t>-6,24; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 1,92</t>
+          <t>-10,73; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -3,61</t>
+          <t>-14,97; -4,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 3,1</t>
+          <t>-8,63; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -2,46</t>
+          <t>-13,43; -2,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -2,69</t>
+          <t>-10,6; -2,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,53</t>
+          <t>-5,63; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -1,65</t>
+          <t>-10,37; -1,62</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 7,19</t>
+          <t>-31,35; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 20,9</t>
+          <t>-19,56; 21,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 7,22</t>
+          <t>-34,43; 9,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,27; -10,92</t>
+          <t>-40,15; -12,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 9,72</t>
+          <t>-22,28; 10,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,65; -7,8</t>
+          <t>-35,04; -7,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,37; -8,95</t>
+          <t>-31,65; -8,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 8,32</t>
+          <t>-16,65; 8,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -5,6</t>
+          <t>-30,59; -5,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 7,87</t>
+          <t>-5,85; 7,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,56</t>
+          <t>0,81; 14,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 4,31</t>
+          <t>-8,45; 4,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 14,71</t>
+          <t>0,48; 14,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 9,51</t>
+          <t>-3,62; 9,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 9,02</t>
+          <t>-4,01; 8,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 9,22</t>
+          <t>-0,32; 9,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 10,48</t>
+          <t>0,59; 10,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,06</t>
+          <t>-4,01; 5,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 42,08</t>
+          <t>-22,95; 38,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 71,4</t>
+          <t>1,68; 75,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 22,07</t>
+          <t>-31,92; 21,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 57,71</t>
+          <t>1,41; 60,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 38,53</t>
+          <t>-12,07; 39,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 37,05</t>
+          <t>-11,78; 32,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 40,93</t>
+          <t>-1,18; 43,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 46,82</t>
+          <t>2,2; 46,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 21,42</t>
+          <t>-14,11; 24,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 7,24</t>
+          <t>-6,81; 6,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,1</t>
+          <t>-2,36; 10,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 20,98</t>
+          <t>3,85; 20,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -0,67</t>
+          <t>-13,68; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 11,84</t>
+          <t>-2,27; 12,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 20,73</t>
+          <t>-9,24; 21,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,53</t>
+          <t>-8,6; 1,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,4</t>
+          <t>-0,04; 9,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 18,74</t>
+          <t>0,31; 18,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 31,32</t>
+          <t>-22,44; 27,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 48,44</t>
+          <t>-8,09; 47,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,7; 87,27</t>
+          <t>13,04; 88,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -1,44</t>
+          <t>-37,44; 1,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 39,65</t>
+          <t>-6,49; 41,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 67,48</t>
+          <t>-25,19; 70,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 5,57</t>
+          <t>-26,47; 5,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 34,33</t>
+          <t>-0,17; 34,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,46; 65,72</t>
+          <t>1,01; 64,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,96; -5,73</t>
+          <t>-22,15; -4,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -9,07</t>
+          <t>-24,95; -8,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -13,41</t>
+          <t>-29,0; -13,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 12,78</t>
+          <t>-5,56; 13,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 5,57</t>
+          <t>-11,24; 6,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -3,84</t>
+          <t>-18,11; -4,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 1,62</t>
+          <t>-10,79; 1,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -3,52</t>
+          <t>-15,87; -3,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -10,37</t>
+          <t>-21,25; -10,67</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,34; -19,83</t>
+          <t>-59,42; -16,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,98; -28,61</t>
+          <t>-66,1; -28,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,63; -46,7</t>
+          <t>-75,51; -46,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 51,38</t>
+          <t>-16,37; 57,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 22,3</t>
+          <t>-34,37; 28,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -16,18</t>
+          <t>-52,36; -14,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 5,59</t>
+          <t>-31,52; 7,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-45,56; -12,26</t>
+          <t>-46,56; -13,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,89; -38,01</t>
+          <t>-61,68; -37,24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,06; 19,13</t>
+          <t>3,05; 18,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8,38; 23,74</t>
+          <t>8,28; 23,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 11,67</t>
+          <t>-2,45; 11,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 4,32</t>
+          <t>-11,94; 3,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 15,53</t>
+          <t>-0,99; 14,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 1,19</t>
+          <t>-13,05; 0,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 8,81</t>
+          <t>-2,67; 8,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,22; 16,89</t>
+          <t>5,6; 16,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 4,21</t>
+          <t>-5,4; 4,59</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,14; 113,57</t>
+          <t>12,86; 112,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>33,11; 147,06</t>
+          <t>35,24; 148,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 71,85</t>
+          <t>-10,92; 67,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 13,59</t>
+          <t>-31,88; 12,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 50,34</t>
+          <t>-2,83; 50,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 3,58</t>
+          <t>-34,24; 2,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 34,6</t>
+          <t>-8,89; 33,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,82; 69,95</t>
+          <t>18,66; 68,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 17,54</t>
+          <t>-18,48; 19,35</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,61</t>
+          <t>-9,2; 0,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 5,14</t>
+          <t>-6,18; 4,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,11</t>
+          <t>0,02; 11,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 1,46</t>
+          <t>-9,99; 0,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,56</t>
+          <t>-7,0; 4,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 3,16</t>
+          <t>-24,91; 3,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -1,06</t>
+          <t>-8,27; -0,58</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,23</t>
+          <t>-4,4; 2,88</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 4,82</t>
+          <t>-14,03; 5,34</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 2,24</t>
+          <t>-30,74; 2,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 20,12</t>
+          <t>-19,84; 17,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,32; 45,1</t>
+          <t>-0,13; 42,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 4,1</t>
+          <t>-24,35; 1,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 12,79</t>
+          <t>-16,99; 11,95</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 8,74</t>
+          <t>-61,35; 7,99</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -3,53</t>
+          <t>-23,48; -1,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 9,93</t>
+          <t>-12,39; 9,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 14,78</t>
+          <t>-40,51; 16,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,84</t>
+          <t>-1,33; 7,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,51; 13,12</t>
+          <t>4,59; 13,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 0,48</t>
+          <t>-15,35; 0,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,65</t>
+          <t>-0,22; 8,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,55</t>
+          <t>2,23; 11,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 1,4</t>
+          <t>-6,9; 2,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,56</t>
+          <t>0,64; 6,97</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>4,82; 11,39</t>
+          <t>4,56; 11,38</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -0,65</t>
+          <t>-13,14; -0,71</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 36,91</t>
+          <t>-5,93; 37,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>19,7; 70,68</t>
+          <t>20,21; 72,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 1,92</t>
+          <t>-70,67; 2,74</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 35,68</t>
+          <t>-0,67; 37,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,33; 47,17</t>
+          <t>7,45; 46,39</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 5,5</t>
+          <t>-23,65; 8,3</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>1,97; 29,85</t>
+          <t>2,57; 32,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>18,74; 51,19</t>
+          <t>17,81; 51,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-54,16; -2,67</t>
+          <t>-52,96; -3,18</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,03</t>
+          <t>-2,4; 2,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,3</t>
+          <t>2,03; 6,63</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,1</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,24</t>
+          <t>-3,23; 1,4</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,37</t>
+          <t>0,92; 5,43</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,89</t>
+          <t>-7,46; 1,87</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,98</t>
+          <t>-2,14; 1,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,25</t>
+          <t>1,88; 5,35</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,82</t>
+          <t>-4,23; 1,62</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 8,54</t>
+          <t>-9,14; 8,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,02; 26,74</t>
+          <t>7,74; 27,76</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 12,69</t>
+          <t>-22,64; 13,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 4,04</t>
+          <t>-10,16; 4,68</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>2,66; 17,83</t>
+          <t>2,79; 18,19</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 6,0</t>
+          <t>-23,14; 6,12</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,5</t>
+          <t>-7,45; 4,08</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,82; 19,04</t>
+          <t>6,48; 19,46</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 6,6</t>
+          <t>-14,59; 5,82</t>
         </is>
       </c>
     </row>
